--- a/Base_Teste.xlsx
+++ b/Base_Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/SegundoSemestre/CD_Projeto3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64F991-A325-8B41-9EDF-BDD9E521C2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC0995-EC79-294E-AC10-E684D163E634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>HDI</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Desemprego</t>
+  </si>
+  <si>
+    <t>Beer_PerCapita</t>
+  </si>
+  <si>
+    <t>Spirit_PerCapita</t>
+  </si>
+  <si>
+    <t>Wine_PerCapita</t>
   </si>
   <si>
     <t>Finland</t>
@@ -96,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,32 +128,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,13 +505,22 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>918</v>
@@ -545,12 +544,21 @@
         <v>8.8184003829956108</v>
       </c>
       <c r="I2">
+        <v>263</v>
+      </c>
+      <c r="J2">
+        <v>133</v>
+      </c>
+      <c r="K2">
+        <v>97</v>
+      </c>
+      <c r="L2">
         <v>7.4130000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>749</v>
@@ -574,12 +582,21 @@
         <v>4.5970001220703098</v>
       </c>
       <c r="I3">
+        <v>162</v>
+      </c>
+      <c r="J3">
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>5.976</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>902</v>
@@ -603,12 +620,21 @@
         <v>4.7979998588562003</v>
       </c>
       <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>69</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
         <v>7.2670000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>928</v>
@@ -632,12 +658,21 @@
         <v>6.1806998252868697</v>
       </c>
       <c r="I5">
+        <v>224</v>
+      </c>
+      <c r="J5">
+        <v>81</v>
+      </c>
+      <c r="K5">
+        <v>278</v>
+      </c>
+      <c r="L5">
         <v>7.5259999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>844</v>
@@ -661,12 +696,21 @@
         <v>9.6429004669189506</v>
       </c>
       <c r="I6">
+        <v>281</v>
+      </c>
+      <c r="J6">
+        <v>216</v>
+      </c>
+      <c r="K6">
+        <v>62</v>
+      </c>
+      <c r="L6">
         <v>5.56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>807</v>
@@ -690,12 +734,21 @@
         <v>5.9014000892639196</v>
       </c>
       <c r="I7">
+        <v>297</v>
+      </c>
+      <c r="J7">
+        <v>122</v>
+      </c>
+      <c r="K7">
+        <v>167</v>
+      </c>
+      <c r="L7">
         <v>5.5279999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>782</v>
@@ -719,12 +772,21 @@
         <v>15.2200002670288</v>
       </c>
       <c r="I8">
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <v>132</v>
+      </c>
+      <c r="K8">
+        <v>54</v>
+      </c>
+      <c r="L8">
         <v>4.6550000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>757</v>
@@ -748,32 +810,41 @@
         <v>5</v>
       </c>
       <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>5.2910000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
